--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-25.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="100">
   <si>
     <t>League</t>
   </si>
@@ -314,63 +314,6 @@
   </si>
   <si>
     <t>Emelec</t>
-  </si>
-  <si>
-    <t>33127815</t>
-  </si>
-  <si>
-    <t>33131946</t>
-  </si>
-  <si>
-    <t>33126101</t>
-  </si>
-  <si>
-    <t>33125783</t>
-  </si>
-  <si>
-    <t>33120922</t>
-  </si>
-  <si>
-    <t>33121380</t>
-  </si>
-  <si>
-    <t>33125844</t>
-  </si>
-  <si>
-    <t>1.226451365</t>
-  </si>
-  <si>
-    <t>1.226445197</t>
-  </si>
-  <si>
-    <t>1.226376344</t>
-  </si>
-  <si>
-    <t>1.226377529</t>
-  </si>
-  <si>
-    <t>1.226445290</t>
-  </si>
-  <si>
-    <t>1.226475140</t>
-  </si>
-  <si>
-    <t>1.226541654</t>
-  </si>
-  <si>
-    <t>1.226451410</t>
-  </si>
-  <si>
-    <t>1.226445243</t>
-  </si>
-  <si>
-    <t>1.226376389</t>
-  </si>
-  <si>
-    <t>1.226377574</t>
-  </si>
-  <si>
-    <t>1.226445335</t>
   </si>
 </sst>
 </file>
@@ -948,19 +891,19 @@
         <v>91</v>
       </c>
       <c r="F2">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="G2">
         <v>2.08</v>
       </c>
       <c r="H2">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I2">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="J2">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K2">
         <v>3.55</v>
@@ -1300,8 +1243,8 @@
       <c r="BE3">
         <v>0</v>
       </c>
-      <c r="BF3" t="s">
-        <v>100</v>
+      <c r="BF3">
+        <v>33127815</v>
       </c>
       <c r="BG3">
         <v>0</v>
@@ -1315,8 +1258,8 @@
       <c r="BJ3">
         <v>0</v>
       </c>
-      <c r="BK3" t="s">
-        <v>112</v>
+      <c r="BK3">
+        <v>1.22647514</v>
       </c>
       <c r="BL3">
         <v>0</v>
@@ -1497,8 +1440,8 @@
       <c r="BE4">
         <v>0</v>
       </c>
-      <c r="BF4" t="s">
-        <v>101</v>
+      <c r="BF4">
+        <v>33131946</v>
       </c>
       <c r="BG4">
         <v>0</v>
@@ -1512,8 +1455,8 @@
       <c r="BJ4">
         <v>0</v>
       </c>
-      <c r="BK4" t="s">
-        <v>113</v>
+      <c r="BK4">
+        <v>1.226541654</v>
       </c>
       <c r="BL4">
         <v>0</v>
@@ -1539,34 +1482,34 @@
         <v>94</v>
       </c>
       <c r="F5">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="G5">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="H5">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="I5">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="J5">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="K5">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="L5">
-        <v>1.56</v>
+        <v>1.48</v>
       </c>
       <c r="M5">
-        <v>2.36</v>
+        <v>2.48</v>
       </c>
       <c r="N5">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="O5">
-        <v>2.78</v>
+        <v>3.05</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1694,8 +1637,8 @@
       <c r="BE5">
         <v>0</v>
       </c>
-      <c r="BF5" t="s">
-        <v>102</v>
+      <c r="BF5">
+        <v>33126101</v>
       </c>
       <c r="BG5">
         <v>18201074</v>
@@ -1706,11 +1649,11 @@
       <c r="BI5">
         <v>58805</v>
       </c>
-      <c r="BJ5" t="s">
-        <v>107</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>114</v>
+      <c r="BJ5">
+        <v>1.226451365</v>
+      </c>
+      <c r="BK5">
+        <v>1.22645141</v>
       </c>
       <c r="BL5">
         <v>0</v>
@@ -1933,34 +1876,34 @@
         <v>96</v>
       </c>
       <c r="F7">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="G7">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="H7">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="I7">
         <v>980</v>
       </c>
       <c r="J7">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K7">
-        <v>12</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L7">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="M7">
-        <v>2.6</v>
+        <v>2.26</v>
       </c>
       <c r="N7">
-        <v>1.63</v>
+        <v>1.8</v>
       </c>
       <c r="O7">
-        <v>2.96</v>
+        <v>2.78</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -2088,8 +2031,8 @@
       <c r="BE7">
         <v>0</v>
       </c>
-      <c r="BF7" t="s">
-        <v>103</v>
+      <c r="BF7">
+        <v>33125783</v>
       </c>
       <c r="BG7">
         <v>10778437</v>
@@ -2100,11 +2043,11 @@
       <c r="BI7">
         <v>58805</v>
       </c>
-      <c r="BJ7" t="s">
-        <v>108</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>115</v>
+      <c r="BJ7">
+        <v>1.226445197</v>
+      </c>
+      <c r="BK7">
+        <v>1.226445243</v>
       </c>
       <c r="BL7">
         <v>0</v>
@@ -2133,28 +2076,28 @@
         <v>1.78</v>
       </c>
       <c r="G8">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H8">
-        <v>1.97</v>
+        <v>3.6</v>
       </c>
       <c r="I8">
-        <v>6</v>
+        <v>870</v>
       </c>
       <c r="J8">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K8">
         <v>330</v>
       </c>
       <c r="L8">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="M8">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="N8">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="O8">
         <v>1.91</v>
@@ -2285,8 +2228,8 @@
       <c r="BE8">
         <v>0</v>
       </c>
-      <c r="BF8" t="s">
-        <v>104</v>
+      <c r="BF8">
+        <v>33120922</v>
       </c>
       <c r="BG8">
         <v>1069686</v>
@@ -2297,11 +2240,11 @@
       <c r="BI8">
         <v>58805</v>
       </c>
-      <c r="BJ8" t="s">
-        <v>109</v>
-      </c>
-      <c r="BK8" t="s">
-        <v>116</v>
+      <c r="BJ8">
+        <v>1.226376344</v>
+      </c>
+      <c r="BK8">
+        <v>1.226376389</v>
       </c>
       <c r="BL8">
         <v>0</v>
@@ -2339,7 +2282,7 @@
         <v>980</v>
       </c>
       <c r="J9">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="K9">
         <v>980</v>
@@ -2482,8 +2425,8 @@
       <c r="BE9">
         <v>0</v>
       </c>
-      <c r="BF9" t="s">
-        <v>105</v>
+      <c r="BF9">
+        <v>33121380</v>
       </c>
       <c r="BG9">
         <v>1222679</v>
@@ -2494,11 +2437,11 @@
       <c r="BI9">
         <v>58805</v>
       </c>
-      <c r="BJ9" t="s">
-        <v>110</v>
-      </c>
-      <c r="BK9" t="s">
-        <v>117</v>
+      <c r="BJ9">
+        <v>1.226377529</v>
+      </c>
+      <c r="BK9">
+        <v>1.226377574</v>
       </c>
       <c r="BL9">
         <v>0</v>
@@ -2524,34 +2467,34 @@
         <v>99</v>
       </c>
       <c r="F10">
-        <v>2.62</v>
+        <v>2.84</v>
       </c>
       <c r="G10">
-        <v>5.6</v>
+        <v>7</v>
       </c>
       <c r="H10">
-        <v>1.88</v>
+        <v>1.96</v>
       </c>
       <c r="I10">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J10">
-        <v>2.92</v>
+        <v>2.66</v>
       </c>
       <c r="K10">
-        <v>12</v>
+        <v>7.4</v>
       </c>
       <c r="L10">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="M10">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="N10">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="O10">
-        <v>2.76</v>
+        <v>2.98</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -2679,8 +2622,8 @@
       <c r="BE10">
         <v>0</v>
       </c>
-      <c r="BF10" t="s">
-        <v>106</v>
+      <c r="BF10">
+        <v>33125844</v>
       </c>
       <c r="BG10">
         <v>17583926</v>
@@ -2691,11 +2634,11 @@
       <c r="BI10">
         <v>58805</v>
       </c>
-      <c r="BJ10" t="s">
-        <v>111</v>
-      </c>
-      <c r="BK10" t="s">
-        <v>118</v>
+      <c r="BJ10">
+        <v>1.22644529</v>
+      </c>
+      <c r="BK10">
+        <v>1.226445335</v>
       </c>
       <c r="BL10">
         <v>0</v>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-25.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-25.xlsx
@@ -894,16 +894,16 @@
         <v>1.98</v>
       </c>
       <c r="G2">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="H2">
         <v>4.5</v>
       </c>
       <c r="I2">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J2">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K2">
         <v>3.55</v>
@@ -912,139 +912,139 @@
         <v>1.56</v>
       </c>
       <c r="M2">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="N2">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="O2">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AO2">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AR2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="AU2">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AV2">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="AW2">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AX2">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="AY2">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="AZ2">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="BA2">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="BB2">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="BC2">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="BD2">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="BE2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF2">
         <v>33117582</v>
@@ -1088,172 +1088,172 @@
         <v>92</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>870</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="L3">
         <v>1.27</v>
       </c>
       <c r="M3">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="N3">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="O3">
         <v>4.6</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AS3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AU3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AW3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AY3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="BA3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="BC3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD3">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="BE3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF3">
         <v>33127815</v>
       </c>
       <c r="BG3">
-        <v>0</v>
+        <v>60300</v>
       </c>
       <c r="BH3">
-        <v>0</v>
+        <v>5727546</v>
       </c>
       <c r="BI3">
-        <v>0</v>
+        <v>58805</v>
       </c>
       <c r="BJ3">
         <v>0</v>
@@ -1285,172 +1285,172 @@
         <v>93</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="L4">
-        <v>1.27</v>
+        <v>2.14</v>
       </c>
       <c r="M4">
-        <v>1000</v>
+        <v>2.76</v>
       </c>
       <c r="N4">
+        <v>1.57</v>
+      </c>
+      <c r="O4">
+        <v>1.88</v>
+      </c>
+      <c r="P4">
+        <v>1.63</v>
+      </c>
+      <c r="Q4">
+        <v>1.79</v>
+      </c>
+      <c r="R4">
+        <v>2.26</v>
+      </c>
+      <c r="S4">
+        <v>2.64</v>
+      </c>
+      <c r="T4">
+        <v>1.49</v>
+      </c>
+      <c r="U4">
+        <v>24</v>
+      </c>
+      <c r="V4">
+        <v>14</v>
+      </c>
+      <c r="W4">
+        <v>23</v>
+      </c>
+      <c r="X4">
+        <v>24</v>
+      </c>
+      <c r="Y4">
+        <v>40</v>
+      </c>
+      <c r="Z4">
         <v>1.01</v>
       </c>
-      <c r="O4">
-        <v>4.6</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
       <c r="AA4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR4">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AS4">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AU4">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AV4">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AW4">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AX4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA4">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BB4">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC4">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="BD4">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="BE4">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF4">
         <v>33131946</v>
       </c>
       <c r="BG4">
-        <v>0</v>
+        <v>298591</v>
       </c>
       <c r="BH4">
-        <v>0</v>
+        <v>184330</v>
       </c>
       <c r="BI4">
-        <v>0</v>
+        <v>58805</v>
       </c>
       <c r="BJ4">
         <v>0</v>
@@ -1482,160 +1482,160 @@
         <v>94</v>
       </c>
       <c r="F5">
-        <v>2.44</v>
+        <v>2.54</v>
       </c>
       <c r="G5">
-        <v>3.55</v>
+        <v>17</v>
       </c>
       <c r="H5">
-        <v>2.64</v>
+        <v>2.42</v>
       </c>
       <c r="I5">
-        <v>3.95</v>
+        <v>17</v>
       </c>
       <c r="J5">
         <v>2.98</v>
       </c>
       <c r="K5">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="L5">
+        <v>1.27</v>
+      </c>
+      <c r="M5">
+        <v>960</v>
+      </c>
+      <c r="N5">
+        <v>1.1</v>
+      </c>
+      <c r="O5">
+        <v>4.6</v>
+      </c>
+      <c r="P5">
+        <v>1.12</v>
+      </c>
+      <c r="Q5">
+        <v>980</v>
+      </c>
+      <c r="R5">
+        <v>1.12</v>
+      </c>
+      <c r="S5">
+        <v>980</v>
+      </c>
+      <c r="T5">
         <v>1.48</v>
       </c>
-      <c r="M5">
-        <v>2.48</v>
-      </c>
-      <c r="N5">
-        <v>1.67</v>
-      </c>
-      <c r="O5">
-        <v>3.05</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
       <c r="U5">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AS5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT5">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AU5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV5">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AW5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX5">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AY5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ5">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="BA5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB5">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="BC5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD5">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="BE5">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF5">
         <v>33126101</v>
@@ -1682,22 +1682,22 @@
         <v>1.88</v>
       </c>
       <c r="G6">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="H6">
-        <v>1.04</v>
+        <v>4.2</v>
       </c>
       <c r="I6">
-        <v>870</v>
+        <v>5.5</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="K6">
-        <v>330</v>
+        <v>4.1</v>
       </c>
       <c r="L6">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="M6">
         <v>1.91</v>
@@ -1706,133 +1706,133 @@
         <v>2.1</v>
       </c>
       <c r="O6">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AO6">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR6">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AS6">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AT6">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AU6">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AV6">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AW6">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AX6">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AY6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ6">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="BA6">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="BB6">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="BC6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD6">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="BE6">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF6">
         <v>33120340</v>
@@ -1876,160 +1876,160 @@
         <v>96</v>
       </c>
       <c r="F7">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="G7">
-        <v>1.8</v>
+        <v>1.59</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I7">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="J7">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K7">
-        <v>9.800000000000001</v>
+        <v>5</v>
       </c>
       <c r="L7">
-        <v>1.56</v>
+        <v>1.76</v>
       </c>
       <c r="M7">
-        <v>2.26</v>
+        <v>1.99</v>
       </c>
       <c r="N7">
-        <v>1.8</v>
+        <v>2.02</v>
       </c>
       <c r="O7">
-        <v>2.78</v>
+        <v>3.1</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ7">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AK7">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AO7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR7">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AS7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AT7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AU7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AV7">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AW7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA7">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="BB7">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD7">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="BE7">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF7">
         <v>33125783</v>
@@ -2073,160 +2073,160 @@
         <v>97</v>
       </c>
       <c r="F8">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="G8">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="H8">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="I8">
-        <v>870</v>
+        <v>5.1</v>
       </c>
       <c r="J8">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="K8">
-        <v>330</v>
+        <v>4.3</v>
       </c>
       <c r="L8">
         <v>2.1</v>
       </c>
       <c r="M8">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="N8">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O8">
         <v>1.91</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AK8">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AU8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AV8">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AW8">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AX8">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AY8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AZ8">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="BA8">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="BB8">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="BC8">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="BD8">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="BE8">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF8">
         <v>33120922</v>
@@ -2282,7 +2282,7 @@
         <v>980</v>
       </c>
       <c r="J9">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="K9">
         <v>980</v>
@@ -2291,139 +2291,139 @@
         <v>1.2</v>
       </c>
       <c r="M9">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="N9">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="O9">
         <v>6.6</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AK9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AQ9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="AU9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AV9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AW9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AX9">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AY9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AZ9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BB9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BD9">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="BE9">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF9">
         <v>33121380</v>
@@ -2467,160 +2467,160 @@
         <v>99</v>
       </c>
       <c r="F10">
+        <v>3.05</v>
+      </c>
+      <c r="G10">
+        <v>4.1</v>
+      </c>
+      <c r="H10">
+        <v>2.22</v>
+      </c>
+      <c r="I10">
+        <v>2.86</v>
+      </c>
+      <c r="J10">
         <v>2.84</v>
       </c>
-      <c r="G10">
+      <c r="K10">
+        <v>4.3</v>
+      </c>
+      <c r="L10">
+        <v>1.62</v>
+      </c>
+      <c r="M10">
+        <v>2.06</v>
+      </c>
+      <c r="N10">
+        <v>1.95</v>
+      </c>
+      <c r="O10">
+        <v>2.6</v>
+      </c>
+      <c r="P10">
+        <v>1.73</v>
+      </c>
+      <c r="Q10">
+        <v>2.24</v>
+      </c>
+      <c r="R10">
+        <v>1.8</v>
+      </c>
+      <c r="S10">
+        <v>2.38</v>
+      </c>
+      <c r="T10">
+        <v>8.4</v>
+      </c>
+      <c r="U10">
+        <v>14</v>
+      </c>
+      <c r="V10">
         <v>7</v>
       </c>
-      <c r="H10">
-        <v>1.96</v>
-      </c>
-      <c r="I10">
-        <v>3.7</v>
-      </c>
-      <c r="J10">
-        <v>2.66</v>
-      </c>
-      <c r="K10">
-        <v>7.4</v>
-      </c>
-      <c r="L10">
-        <v>1.5</v>
-      </c>
-      <c r="M10">
-        <v>2.28</v>
-      </c>
-      <c r="N10">
-        <v>1.78</v>
-      </c>
-      <c r="O10">
-        <v>2.98</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
       <c r="W10">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AJ10">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AK10">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AP10">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AU10">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AV10">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AW10">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AX10">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AY10">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AZ10">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BA10">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="BB10">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BC10">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="BD10">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="BE10">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="BF10">
         <v>33125844</v>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-25.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="108">
   <si>
     <t>League</t>
   </si>
@@ -226,6 +226,9 @@
     <t>Colombian Primera A</t>
   </si>
   <si>
+    <t>Venezuelan Primera Division</t>
+  </si>
+  <si>
     <t>Ecuadorian Serie A</t>
   </si>
   <si>
@@ -277,6 +280,9 @@
     <t>Once Caldas</t>
   </si>
   <si>
+    <t>Angostura FC</t>
+  </si>
+  <si>
     <t>Delfin</t>
   </si>
   <si>
@@ -304,6 +310,9 @@
     <t>Alianza Petrolera</t>
   </si>
   <si>
+    <t>Puerto Cabello</t>
+  </si>
+  <si>
     <t>Libertad FC</t>
   </si>
   <si>
@@ -314,6 +323,21 @@
   </si>
   <si>
     <t>Emelec</t>
+  </si>
+  <si>
+    <t>33135365</t>
+  </si>
+  <si>
+    <t>1.226612905</t>
+  </si>
+  <si>
+    <t>1.226612950</t>
+  </si>
+  <si>
+    <t>1.226612989</t>
+  </si>
+  <si>
+    <t>1.226612914</t>
   </si>
 </sst>
 </file>
@@ -671,7 +695,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BM10"/>
+  <dimension ref="A1:BM11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -879,88 +903,88 @@
         <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F2">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="H2">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I2">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="J2">
         <v>3.25</v>
       </c>
       <c r="K2">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L2">
         <v>1.56</v>
       </c>
       <c r="M2">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="N2">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="O2">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="P2">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q2">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R2">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S2">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="T2">
         <v>8.199999999999999</v>
       </c>
       <c r="U2">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="V2">
         <v>11</v>
       </c>
       <c r="W2">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="X2">
-        <v>5.2</v>
+        <v>7.4</v>
       </c>
       <c r="Y2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Z2">
-        <v>5.6</v>
+        <v>8.4</v>
       </c>
       <c r="AA2">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AB2">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AC2">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD2">
         <v>7</v>
@@ -969,19 +993,19 @@
         <v>8</v>
       </c>
       <c r="AF2">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG2">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AH2">
-        <v>5.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AI2">
         <v>100</v>
       </c>
       <c r="AJ2">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AK2">
         <v>11</v>
@@ -990,58 +1014,58 @@
         <v>10</v>
       </c>
       <c r="AM2">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AN2">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AO2">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AP2">
-        <v>5.5</v>
+        <v>8.4</v>
       </c>
       <c r="AQ2">
         <v>130</v>
       </c>
       <c r="AR2">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AS2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT2">
-        <v>5.4</v>
+        <v>19</v>
       </c>
       <c r="AU2">
         <v>34</v>
       </c>
       <c r="AV2">
-        <v>5.3</v>
+        <v>7.8</v>
       </c>
       <c r="AW2">
         <v>70</v>
       </c>
       <c r="AX2">
-        <v>5.6</v>
+        <v>8.6</v>
       </c>
       <c r="AY2">
         <v>250</v>
       </c>
       <c r="AZ2">
-        <v>4.8</v>
+        <v>6.6</v>
       </c>
       <c r="BA2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB2">
-        <v>5.6</v>
+        <v>8.4</v>
       </c>
       <c r="BC2">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="BD2">
-        <v>5.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="BE2">
         <v>1000</v>
@@ -1076,61 +1100,61 @@
         <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F3">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="G3">
-        <v>480</v>
+        <v>2.4</v>
       </c>
       <c r="H3">
-        <v>2.92</v>
+        <v>3.5</v>
       </c>
       <c r="I3">
-        <v>870</v>
+        <v>11</v>
       </c>
       <c r="J3">
-        <v>2.48</v>
+        <v>2.72</v>
       </c>
       <c r="K3">
-        <v>330</v>
+        <v>5.7</v>
       </c>
       <c r="L3">
-        <v>1.27</v>
+        <v>1.6</v>
       </c>
       <c r="M3">
+        <v>2.04</v>
+      </c>
+      <c r="N3">
+        <v>1.96</v>
+      </c>
+      <c r="O3">
+        <v>2.68</v>
+      </c>
+      <c r="P3">
+        <v>1.13</v>
+      </c>
+      <c r="Q3">
         <v>970</v>
       </c>
-      <c r="N3">
-        <v>1.1</v>
-      </c>
-      <c r="O3">
-        <v>4.6</v>
-      </c>
-      <c r="P3">
-        <v>1.12</v>
-      </c>
-      <c r="Q3">
-        <v>1000</v>
-      </c>
       <c r="R3">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="S3">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="T3">
-        <v>1.48</v>
+        <v>1.15</v>
       </c>
       <c r="U3">
         <v>980</v>
@@ -1273,16 +1297,16 @@
         <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F4">
         <v>1.86</v>
@@ -1306,136 +1330,136 @@
         <v>2.14</v>
       </c>
       <c r="M4">
-        <v>2.76</v>
+        <v>2.64</v>
       </c>
       <c r="N4">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="O4">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="P4">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="Q4">
         <v>1.79</v>
       </c>
       <c r="R4">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="S4">
         <v>2.64</v>
       </c>
       <c r="T4">
-        <v>1.49</v>
+        <v>3.65</v>
       </c>
       <c r="U4">
         <v>24</v>
       </c>
       <c r="V4">
-        <v>14</v>
+        <v>3.6</v>
       </c>
       <c r="W4">
         <v>23</v>
       </c>
       <c r="X4">
-        <v>24</v>
+        <v>3.85</v>
       </c>
       <c r="Y4">
         <v>40</v>
       </c>
       <c r="Z4">
-        <v>1.01</v>
+        <v>3.05</v>
       </c>
       <c r="AA4">
         <v>1000</v>
       </c>
       <c r="AB4">
-        <v>8.800000000000001</v>
+        <v>3.3</v>
       </c>
       <c r="AC4">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AD4">
-        <v>7.2</v>
+        <v>3.15</v>
       </c>
       <c r="AE4">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AF4">
-        <v>12.5</v>
+        <v>3.55</v>
       </c>
       <c r="AG4">
         <v>20</v>
       </c>
       <c r="AH4">
-        <v>30</v>
+        <v>2.98</v>
       </c>
       <c r="AI4">
         <v>1000</v>
       </c>
       <c r="AJ4">
-        <v>10</v>
+        <v>3.4</v>
       </c>
       <c r="AK4">
         <v>16.5</v>
       </c>
       <c r="AL4">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="AM4">
         <v>13</v>
       </c>
       <c r="AN4">
-        <v>13</v>
+        <v>3.6</v>
       </c>
       <c r="AO4">
         <v>22</v>
       </c>
       <c r="AP4">
-        <v>34</v>
+        <v>3.2</v>
       </c>
       <c r="AQ4">
         <v>1000</v>
       </c>
       <c r="AR4">
-        <v>17</v>
+        <v>3.75</v>
       </c>
       <c r="AS4">
         <v>28</v>
       </c>
       <c r="AT4">
-        <v>14</v>
+        <v>3.6</v>
       </c>
       <c r="AU4">
         <v>23</v>
       </c>
       <c r="AV4">
-        <v>22</v>
+        <v>3.2</v>
       </c>
       <c r="AW4">
         <v>38</v>
       </c>
       <c r="AX4">
-        <v>1.01</v>
+        <v>3.05</v>
       </c>
       <c r="AY4">
         <v>1000</v>
       </c>
       <c r="AZ4">
-        <v>1.01</v>
+        <v>3.2</v>
       </c>
       <c r="BA4">
         <v>13</v>
       </c>
       <c r="BB4">
-        <v>1.01</v>
+        <v>3.05</v>
       </c>
       <c r="BC4">
         <v>44</v>
       </c>
       <c r="BD4">
-        <v>16</v>
+        <v>4.3</v>
       </c>
       <c r="BE4">
         <v>1000</v>
@@ -1470,46 +1494,46 @@
         <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F5">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="G5">
         <v>17</v>
       </c>
       <c r="H5">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="I5">
-        <v>17</v>
+        <v>4.6</v>
       </c>
       <c r="J5">
         <v>2.98</v>
       </c>
       <c r="K5">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="L5">
-        <v>1.27</v>
+        <v>1.65</v>
       </c>
       <c r="M5">
-        <v>960</v>
+        <v>3.1</v>
       </c>
       <c r="N5">
-        <v>1.1</v>
+        <v>1.47</v>
       </c>
       <c r="O5">
-        <v>4.6</v>
+        <v>2.52</v>
       </c>
       <c r="P5">
         <v>1.12</v>
@@ -1667,67 +1691,67 @@
         <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F6">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="G6">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="H6">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="I6">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="J6">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K6">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L6">
         <v>1.7</v>
       </c>
       <c r="M6">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="N6">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="O6">
         <v>2.44</v>
       </c>
       <c r="P6">
-        <v>1.12</v>
+        <v>1.92</v>
       </c>
       <c r="Q6">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="R6">
-        <v>1.12</v>
+        <v>1.87</v>
       </c>
       <c r="S6">
         <v>2.08</v>
       </c>
       <c r="T6">
-        <v>1.1</v>
+        <v>9</v>
       </c>
       <c r="U6">
-        <v>980</v>
+        <v>12</v>
       </c>
       <c r="V6">
-        <v>1.1</v>
+        <v>11.5</v>
       </c>
       <c r="W6">
         <v>980</v>
@@ -1745,19 +1769,19 @@
         <v>1000</v>
       </c>
       <c r="AB6">
-        <v>1.1</v>
+        <v>6.4</v>
       </c>
       <c r="AC6">
         <v>980</v>
       </c>
       <c r="AD6">
-        <v>1.1</v>
+        <v>6.6</v>
       </c>
       <c r="AE6">
-        <v>980</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AF6">
-        <v>1.1</v>
+        <v>16</v>
       </c>
       <c r="AG6">
         <v>980</v>
@@ -1769,19 +1793,19 @@
         <v>1000</v>
       </c>
       <c r="AJ6">
-        <v>1.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AK6">
         <v>12</v>
       </c>
       <c r="AL6">
-        <v>1.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AM6">
         <v>980</v>
       </c>
       <c r="AN6">
-        <v>1.1</v>
+        <v>18</v>
       </c>
       <c r="AO6">
         <v>980</v>
@@ -1793,13 +1817,13 @@
         <v>1000</v>
       </c>
       <c r="AR6">
-        <v>1.1</v>
+        <v>17.5</v>
       </c>
       <c r="AS6">
         <v>24</v>
       </c>
       <c r="AT6">
-        <v>1.1</v>
+        <v>18.5</v>
       </c>
       <c r="AU6">
         <v>25</v>
@@ -1826,7 +1850,7 @@
         <v>1.1</v>
       </c>
       <c r="BC6">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="BD6">
         <v>1.1</v>
@@ -1864,70 +1888,70 @@
         <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
         <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F7">
-        <v>1.44</v>
+        <v>2.92</v>
       </c>
       <c r="G7">
-        <v>1.59</v>
+        <v>5.7</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>2.2</v>
       </c>
       <c r="I7">
-        <v>11</v>
+        <v>3.45</v>
       </c>
       <c r="J7">
-        <v>3.6</v>
+        <v>1.87</v>
       </c>
       <c r="K7">
         <v>5</v>
       </c>
       <c r="L7">
-        <v>1.76</v>
+        <v>1.2</v>
       </c>
       <c r="M7">
-        <v>1.99</v>
+        <v>13.5</v>
       </c>
       <c r="N7">
-        <v>2.02</v>
+        <v>1.1</v>
       </c>
       <c r="O7">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="P7">
         <v>1.12</v>
       </c>
       <c r="Q7">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="R7">
         <v>1.12</v>
       </c>
       <c r="S7">
-        <v>1.84</v>
+        <v>1000</v>
       </c>
       <c r="T7">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="U7">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="V7">
-        <v>18.5</v>
+        <v>1.01</v>
       </c>
       <c r="W7">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="X7">
         <v>1.01</v>
@@ -1942,19 +1966,19 @@
         <v>1000</v>
       </c>
       <c r="AB7">
-        <v>5.6</v>
+        <v>1.01</v>
       </c>
       <c r="AC7">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD7">
-        <v>8.4</v>
+        <v>1.01</v>
       </c>
       <c r="AE7">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AF7">
-        <v>28</v>
+        <v>1.01</v>
       </c>
       <c r="AG7">
         <v>1000</v>
@@ -1966,43 +1990,43 @@
         <v>1000</v>
       </c>
       <c r="AJ7">
-        <v>6.2</v>
+        <v>1.01</v>
       </c>
       <c r="AK7">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AL7">
-        <v>8.6</v>
+        <v>1.01</v>
       </c>
       <c r="AM7">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AN7">
-        <v>26</v>
+        <v>1.01</v>
       </c>
       <c r="AO7">
         <v>1000</v>
       </c>
       <c r="AP7">
-        <v>130</v>
+        <v>1.01</v>
       </c>
       <c r="AQ7">
         <v>1000</v>
       </c>
       <c r="AR7">
-        <v>3.15</v>
+        <v>1.01</v>
       </c>
       <c r="AS7">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AT7">
-        <v>15</v>
+        <v>1.01</v>
       </c>
       <c r="AU7">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AV7">
-        <v>40</v>
+        <v>1.01</v>
       </c>
       <c r="AW7">
         <v>1000</v>
@@ -2017,7 +2041,7 @@
         <v>1.01</v>
       </c>
       <c r="BA7">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="BB7">
         <v>1.01</v>
@@ -2026,34 +2050,34 @@
         <v>1000</v>
       </c>
       <c r="BD7">
-        <v>12.5</v>
+        <v>24</v>
       </c>
       <c r="BE7">
         <v>1000</v>
       </c>
-      <c r="BF7">
-        <v>33125783</v>
+      <c r="BF7" t="s">
+        <v>103</v>
       </c>
       <c r="BG7">
-        <v>10778437</v>
+        <v>10160867</v>
       </c>
       <c r="BH7">
-        <v>44232344</v>
+        <v>13442344</v>
       </c>
       <c r="BI7">
         <v>58805</v>
       </c>
-      <c r="BJ7">
-        <v>1.226445197</v>
-      </c>
-      <c r="BK7">
-        <v>1.226445243</v>
-      </c>
-      <c r="BL7">
-        <v>0</v>
-      </c>
-      <c r="BM7">
-        <v>0</v>
+      <c r="BJ7" t="s">
+        <v>104</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>105</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>106</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:65">
@@ -2061,190 +2085,190 @@
         <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
         <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F8">
-        <v>1.77</v>
+        <v>1.46</v>
       </c>
       <c r="G8">
-        <v>1.94</v>
+        <v>1.53</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>7.8</v>
       </c>
       <c r="I8">
-        <v>5.1</v>
+        <v>10.5</v>
       </c>
       <c r="J8">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="K8">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="L8">
-        <v>2.1</v>
+        <v>1.76</v>
       </c>
       <c r="M8">
-        <v>2.38</v>
+        <v>1.93</v>
       </c>
       <c r="N8">
-        <v>1.73</v>
+        <v>2.08</v>
       </c>
       <c r="O8">
-        <v>1.91</v>
+        <v>3.1</v>
       </c>
       <c r="P8">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="Q8">
-        <v>1.84</v>
+        <v>2.64</v>
       </c>
       <c r="R8">
-        <v>2.18</v>
+        <v>1.6</v>
       </c>
       <c r="S8">
-        <v>2.36</v>
+        <v>1.83</v>
       </c>
       <c r="T8">
+        <v>10.5</v>
+      </c>
+      <c r="U8">
+        <v>13</v>
+      </c>
+      <c r="V8">
+        <v>18.5</v>
+      </c>
+      <c r="W8">
+        <v>25</v>
+      </c>
+      <c r="X8">
+        <v>1.01</v>
+      </c>
+      <c r="Y8">
+        <v>80</v>
+      </c>
+      <c r="Z8">
+        <v>1.01</v>
+      </c>
+      <c r="AA8">
+        <v>1000</v>
+      </c>
+      <c r="AB8">
+        <v>5.9</v>
+      </c>
+      <c r="AC8">
+        <v>6.8</v>
+      </c>
+      <c r="AD8">
+        <v>8.4</v>
+      </c>
+      <c r="AE8">
+        <v>11.5</v>
+      </c>
+      <c r="AF8">
+        <v>28</v>
+      </c>
+      <c r="AG8">
+        <v>38</v>
+      </c>
+      <c r="AH8">
+        <v>1.01</v>
+      </c>
+      <c r="AI8">
+        <v>1000</v>
+      </c>
+      <c r="AJ8">
+        <v>6.6</v>
+      </c>
+      <c r="AK8">
+        <v>8.4</v>
+      </c>
+      <c r="AL8">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AM8">
+        <v>11.5</v>
+      </c>
+      <c r="AN8">
+        <v>26</v>
+      </c>
+      <c r="AO8">
+        <v>1000</v>
+      </c>
+      <c r="AP8">
+        <v>130</v>
+      </c>
+      <c r="AQ8">
+        <v>1000</v>
+      </c>
+      <c r="AR8">
+        <v>5</v>
+      </c>
+      <c r="AS8">
         <v>14</v>
       </c>
-      <c r="U8">
-        <v>980</v>
-      </c>
-      <c r="V8">
-        <v>1.1</v>
-      </c>
-      <c r="W8">
+      <c r="AT8">
+        <v>15</v>
+      </c>
+      <c r="AU8">
         <v>21</v>
       </c>
-      <c r="X8">
-        <v>1.1</v>
-      </c>
-      <c r="Y8">
-        <v>38</v>
-      </c>
-      <c r="Z8">
-        <v>1.1</v>
-      </c>
-      <c r="AA8">
-        <v>110</v>
-      </c>
-      <c r="AB8">
-        <v>1.1</v>
-      </c>
-      <c r="AC8">
-        <v>980</v>
-      </c>
-      <c r="AD8">
-        <v>1.1</v>
-      </c>
-      <c r="AE8">
-        <v>980</v>
-      </c>
-      <c r="AF8">
-        <v>1.1</v>
-      </c>
-      <c r="AG8">
-        <v>980</v>
-      </c>
-      <c r="AH8">
-        <v>1.1</v>
-      </c>
-      <c r="AI8">
-        <v>60</v>
-      </c>
-      <c r="AJ8">
-        <v>1.1</v>
-      </c>
-      <c r="AK8">
-        <v>13.5</v>
-      </c>
-      <c r="AL8">
-        <v>1.1</v>
-      </c>
-      <c r="AM8">
-        <v>980</v>
-      </c>
-      <c r="AN8">
-        <v>1.1</v>
-      </c>
-      <c r="AO8">
-        <v>980</v>
-      </c>
-      <c r="AP8">
-        <v>1.1</v>
-      </c>
-      <c r="AQ8">
-        <v>65</v>
-      </c>
-      <c r="AR8">
-        <v>1.1</v>
-      </c>
-      <c r="AS8">
-        <v>23</v>
-      </c>
-      <c r="AT8">
-        <v>1.1</v>
-      </c>
-      <c r="AU8">
-        <v>20</v>
-      </c>
       <c r="AV8">
-        <v>15.5</v>
+        <v>40</v>
       </c>
       <c r="AW8">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AX8">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="AY8">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AZ8">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="BA8">
         <v>10.5</v>
       </c>
       <c r="BB8">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="BC8">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="BD8">
-        <v>1.1</v>
+        <v>12.5</v>
       </c>
       <c r="BE8">
         <v>1000</v>
       </c>
       <c r="BF8">
-        <v>33120922</v>
+        <v>33125783</v>
       </c>
       <c r="BG8">
-        <v>1069686</v>
+        <v>10778437</v>
       </c>
       <c r="BH8">
-        <v>5129865</v>
+        <v>44232344</v>
       </c>
       <c r="BI8">
         <v>58805</v>
       </c>
       <c r="BJ8">
-        <v>1.226376344</v>
+        <v>1.226445197</v>
       </c>
       <c r="BK8">
-        <v>1.226376389</v>
+        <v>1.226445243</v>
       </c>
       <c r="BL8">
         <v>0</v>
@@ -2258,190 +2282,190 @@
         <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
         <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F9">
-        <v>1.04</v>
+        <v>1.83</v>
       </c>
       <c r="G9">
+        <v>1.95</v>
+      </c>
+      <c r="H9">
+        <v>4.5</v>
+      </c>
+      <c r="I9">
+        <v>4.8</v>
+      </c>
+      <c r="J9">
+        <v>3.8</v>
+      </c>
+      <c r="K9">
+        <v>4.2</v>
+      </c>
+      <c r="L9">
+        <v>2.06</v>
+      </c>
+      <c r="M9">
+        <v>2.34</v>
+      </c>
+      <c r="N9">
+        <v>1.75</v>
+      </c>
+      <c r="O9">
+        <v>1.94</v>
+      </c>
+      <c r="P9">
+        <v>1.74</v>
+      </c>
+      <c r="Q9">
+        <v>1.85</v>
+      </c>
+      <c r="R9">
+        <v>2.18</v>
+      </c>
+      <c r="S9">
+        <v>2.36</v>
+      </c>
+      <c r="T9">
+        <v>14</v>
+      </c>
+      <c r="U9">
+        <v>18.5</v>
+      </c>
+      <c r="V9">
+        <v>15</v>
+      </c>
+      <c r="W9">
         <v>980</v>
       </c>
-      <c r="H9">
-        <v>1.04</v>
-      </c>
-      <c r="I9">
+      <c r="X9">
+        <v>1.1</v>
+      </c>
+      <c r="Y9">
+        <v>38</v>
+      </c>
+      <c r="Z9">
+        <v>1.1</v>
+      </c>
+      <c r="AA9">
+        <v>110</v>
+      </c>
+      <c r="AB9">
+        <v>8.6</v>
+      </c>
+      <c r="AC9">
+        <v>11.5</v>
+      </c>
+      <c r="AD9">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE9">
         <v>980</v>
       </c>
-      <c r="J9">
-        <v>1.21</v>
-      </c>
-      <c r="K9">
-        <v>980</v>
-      </c>
-      <c r="L9">
-        <v>1.2</v>
-      </c>
-      <c r="M9">
-        <v>18</v>
-      </c>
-      <c r="N9">
-        <v>1.1</v>
-      </c>
-      <c r="O9">
-        <v>6.6</v>
-      </c>
-      <c r="P9">
-        <v>1.12</v>
-      </c>
-      <c r="Q9">
-        <v>980</v>
-      </c>
-      <c r="R9">
-        <v>1.12</v>
-      </c>
-      <c r="S9">
-        <v>980</v>
-      </c>
-      <c r="T9">
-        <v>1.49</v>
-      </c>
-      <c r="U9">
-        <v>1000</v>
-      </c>
-      <c r="V9">
-        <v>2.64</v>
-      </c>
-      <c r="W9">
-        <v>1000</v>
-      </c>
-      <c r="X9">
-        <v>2.88</v>
-      </c>
-      <c r="Y9">
-        <v>1000</v>
-      </c>
-      <c r="Z9">
-        <v>4.9</v>
-      </c>
-      <c r="AA9">
-        <v>1000</v>
-      </c>
-      <c r="AB9">
-        <v>2.5</v>
-      </c>
-      <c r="AC9">
-        <v>1000</v>
-      </c>
-      <c r="AD9">
-        <v>3.55</v>
-      </c>
-      <c r="AE9">
-        <v>1000</v>
-      </c>
       <c r="AF9">
-        <v>3.9</v>
+        <v>14.5</v>
       </c>
       <c r="AG9">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH9">
-        <v>6</v>
+        <v>1.1</v>
       </c>
       <c r="AI9">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ9">
-        <v>3.15</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK9">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AL9">
-        <v>2.88</v>
+        <v>8.4</v>
       </c>
       <c r="AM9">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AN9">
-        <v>6.8</v>
+        <v>15</v>
       </c>
       <c r="AO9">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AP9">
-        <v>9.4</v>
+        <v>1.1</v>
       </c>
       <c r="AQ9">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AR9">
-        <v>3.5</v>
+        <v>16.5</v>
       </c>
       <c r="AS9">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AT9">
-        <v>4.8</v>
+        <v>14.5</v>
       </c>
       <c r="AU9">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AV9">
-        <v>7</v>
+        <v>1.1</v>
       </c>
       <c r="AW9">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AX9">
-        <v>9.800000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AY9">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AZ9">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="BA9">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="BB9">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="BC9">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="BD9">
-        <v>36</v>
+        <v>1.1</v>
       </c>
       <c r="BE9">
         <v>1000</v>
       </c>
       <c r="BF9">
-        <v>33121380</v>
+        <v>33120922</v>
       </c>
       <c r="BG9">
-        <v>1222679</v>
+        <v>1069686</v>
       </c>
       <c r="BH9">
-        <v>504779</v>
+        <v>5129865</v>
       </c>
       <c r="BI9">
         <v>58805</v>
       </c>
       <c r="BJ9">
-        <v>1.226377529</v>
+        <v>1.226376344</v>
       </c>
       <c r="BK9">
-        <v>1.226377574</v>
+        <v>1.226376389</v>
       </c>
       <c r="BL9">
         <v>0</v>
@@ -2452,198 +2476,395 @@
     </row>
     <row r="10" spans="1:65">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
         <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F10">
-        <v>3.05</v>
+        <v>1.04</v>
       </c>
       <c r="G10">
-        <v>4.1</v>
+        <v>980</v>
       </c>
       <c r="H10">
-        <v>2.22</v>
+        <v>1.04</v>
       </c>
       <c r="I10">
-        <v>2.86</v>
+        <v>980</v>
       </c>
       <c r="J10">
-        <v>2.84</v>
+        <v>1.21</v>
       </c>
       <c r="K10">
-        <v>4.3</v>
+        <v>980</v>
       </c>
       <c r="L10">
-        <v>1.62</v>
+        <v>1.2</v>
       </c>
       <c r="M10">
-        <v>2.06</v>
+        <v>18</v>
       </c>
       <c r="N10">
-        <v>1.95</v>
+        <v>1.1</v>
       </c>
       <c r="O10">
-        <v>2.6</v>
+        <v>6.6</v>
       </c>
       <c r="P10">
-        <v>1.73</v>
+        <v>1.12</v>
       </c>
       <c r="Q10">
-        <v>2.24</v>
+        <v>980</v>
       </c>
       <c r="R10">
-        <v>1.8</v>
+        <v>1.12</v>
       </c>
       <c r="S10">
-        <v>2.38</v>
+        <v>980</v>
       </c>
       <c r="T10">
-        <v>8.4</v>
+        <v>1.49</v>
       </c>
       <c r="U10">
+        <v>1000</v>
+      </c>
+      <c r="V10">
+        <v>2.92</v>
+      </c>
+      <c r="W10">
+        <v>1000</v>
+      </c>
+      <c r="X10">
+        <v>2.58</v>
+      </c>
+      <c r="Y10">
+        <v>1000</v>
+      </c>
+      <c r="Z10">
+        <v>4.5</v>
+      </c>
+      <c r="AA10">
+        <v>1000</v>
+      </c>
+      <c r="AB10">
+        <v>2.32</v>
+      </c>
+      <c r="AC10">
+        <v>1000</v>
+      </c>
+      <c r="AD10">
+        <v>2.78</v>
+      </c>
+      <c r="AE10">
+        <v>1000</v>
+      </c>
+      <c r="AF10">
+        <v>3.2</v>
+      </c>
+      <c r="AG10">
+        <v>1000</v>
+      </c>
+      <c r="AH10">
+        <v>7.4</v>
+      </c>
+      <c r="AI10">
+        <v>1000</v>
+      </c>
+      <c r="AJ10">
+        <v>2.88</v>
+      </c>
+      <c r="AK10">
+        <v>1000</v>
+      </c>
+      <c r="AL10">
+        <v>3.95</v>
+      </c>
+      <c r="AM10">
+        <v>1000</v>
+      </c>
+      <c r="AN10">
+        <v>6.2</v>
+      </c>
+      <c r="AO10">
+        <v>1000</v>
+      </c>
+      <c r="AP10">
+        <v>12.5</v>
+      </c>
+      <c r="AQ10">
+        <v>1000</v>
+      </c>
+      <c r="AR10">
+        <v>3.15</v>
+      </c>
+      <c r="AS10">
+        <v>1000</v>
+      </c>
+      <c r="AT10">
+        <v>9</v>
+      </c>
+      <c r="AU10">
+        <v>1000</v>
+      </c>
+      <c r="AV10">
+        <v>6.6</v>
+      </c>
+      <c r="AW10">
+        <v>1000</v>
+      </c>
+      <c r="AX10">
         <v>14</v>
       </c>
-      <c r="V10">
-        <v>7</v>
-      </c>
-      <c r="W10">
-        <v>11.5</v>
-      </c>
-      <c r="X10">
-        <v>10.5</v>
-      </c>
-      <c r="Y10">
-        <v>18</v>
-      </c>
-      <c r="Z10">
-        <v>23</v>
-      </c>
-      <c r="AA10">
-        <v>40</v>
-      </c>
-      <c r="AB10">
-        <v>8.6</v>
-      </c>
-      <c r="AC10">
-        <v>14.5</v>
-      </c>
-      <c r="AD10">
-        <v>5.8</v>
-      </c>
-      <c r="AE10">
-        <v>9.4</v>
-      </c>
-      <c r="AF10">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG10">
-        <v>14.5</v>
-      </c>
-      <c r="AH10">
-        <v>20</v>
-      </c>
-      <c r="AI10">
-        <v>36</v>
-      </c>
-      <c r="AJ10">
-        <v>16</v>
-      </c>
-      <c r="AK10">
-        <v>28</v>
-      </c>
-      <c r="AL10">
-        <v>10.5</v>
-      </c>
-      <c r="AM10">
-        <v>18</v>
-      </c>
-      <c r="AN10">
-        <v>14.5</v>
-      </c>
-      <c r="AO10">
-        <v>24</v>
-      </c>
-      <c r="AP10">
-        <v>32</v>
-      </c>
-      <c r="AQ10">
-        <v>60</v>
-      </c>
-      <c r="AR10">
-        <v>44</v>
-      </c>
-      <c r="AS10">
-        <v>75</v>
-      </c>
-      <c r="AT10">
-        <v>30</v>
-      </c>
-      <c r="AU10">
-        <v>55</v>
-      </c>
-      <c r="AV10">
-        <v>42</v>
-      </c>
-      <c r="AW10">
-        <v>75</v>
-      </c>
-      <c r="AX10">
-        <v>85</v>
-      </c>
       <c r="AY10">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AZ10">
         <v>1.01</v>
       </c>
       <c r="BA10">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="BB10">
         <v>1.01</v>
       </c>
       <c r="BC10">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="BD10">
-        <v>1.01</v>
+        <v>36</v>
       </c>
       <c r="BE10">
         <v>1000</v>
       </c>
       <c r="BF10">
-        <v>33125844</v>
+        <v>33121380</v>
       </c>
       <c r="BG10">
-        <v>17583926</v>
+        <v>1222679</v>
       </c>
       <c r="BH10">
-        <v>328197</v>
+        <v>504779</v>
       </c>
       <c r="BI10">
         <v>58805</v>
       </c>
       <c r="BJ10">
-        <v>1.22644529</v>
+        <v>1.226377529</v>
       </c>
       <c r="BK10">
-        <v>1.226445335</v>
+        <v>1.226377574</v>
       </c>
       <c r="BL10">
         <v>0</v>
       </c>
       <c r="BM10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:65">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11">
+        <v>3.05</v>
+      </c>
+      <c r="G11">
+        <v>3.7</v>
+      </c>
+      <c r="H11">
+        <v>2.2</v>
+      </c>
+      <c r="I11">
+        <v>2.58</v>
+      </c>
+      <c r="J11">
+        <v>3.25</v>
+      </c>
+      <c r="K11">
+        <v>3.85</v>
+      </c>
+      <c r="L11">
+        <v>1.72</v>
+      </c>
+      <c r="M11">
+        <v>1.93</v>
+      </c>
+      <c r="N11">
+        <v>2.08</v>
+      </c>
+      <c r="O11">
+        <v>2.4</v>
+      </c>
+      <c r="P11">
+        <v>1.8</v>
+      </c>
+      <c r="Q11">
+        <v>2.1</v>
+      </c>
+      <c r="R11">
+        <v>1.91</v>
+      </c>
+      <c r="S11">
+        <v>2.24</v>
+      </c>
+      <c r="T11">
+        <v>8.6</v>
+      </c>
+      <c r="U11">
+        <v>14</v>
+      </c>
+      <c r="V11">
+        <v>7</v>
+      </c>
+      <c r="W11">
+        <v>10.5</v>
+      </c>
+      <c r="X11">
+        <v>10.5</v>
+      </c>
+      <c r="Y11">
+        <v>17.5</v>
+      </c>
+      <c r="Z11">
+        <v>1.1</v>
+      </c>
+      <c r="AA11">
+        <v>40</v>
+      </c>
+      <c r="AB11">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC11">
+        <v>14.5</v>
+      </c>
+      <c r="AD11">
+        <v>5.9</v>
+      </c>
+      <c r="AE11">
+        <v>8.6</v>
+      </c>
+      <c r="AF11">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG11">
+        <v>14.5</v>
+      </c>
+      <c r="AH11">
+        <v>1.1</v>
+      </c>
+      <c r="AI11">
+        <v>34</v>
+      </c>
+      <c r="AJ11">
+        <v>16</v>
+      </c>
+      <c r="AK11">
+        <v>28</v>
+      </c>
+      <c r="AL11">
+        <v>10.5</v>
+      </c>
+      <c r="AM11">
+        <v>18</v>
+      </c>
+      <c r="AN11">
+        <v>14.5</v>
+      </c>
+      <c r="AO11">
+        <v>980</v>
+      </c>
+      <c r="AP11">
+        <v>1.1</v>
+      </c>
+      <c r="AQ11">
+        <v>60</v>
+      </c>
+      <c r="AR11">
+        <v>1.1</v>
+      </c>
+      <c r="AS11">
+        <v>75</v>
+      </c>
+      <c r="AT11">
+        <v>1.1</v>
+      </c>
+      <c r="AU11">
+        <v>55</v>
+      </c>
+      <c r="AV11">
+        <v>1.1</v>
+      </c>
+      <c r="AW11">
+        <v>70</v>
+      </c>
+      <c r="AX11">
+        <v>17</v>
+      </c>
+      <c r="AY11">
+        <v>150</v>
+      </c>
+      <c r="AZ11">
+        <v>1.1</v>
+      </c>
+      <c r="BA11">
+        <v>55</v>
+      </c>
+      <c r="BB11">
+        <v>1.1</v>
+      </c>
+      <c r="BC11">
+        <v>28</v>
+      </c>
+      <c r="BD11">
+        <v>1.1</v>
+      </c>
+      <c r="BE11">
+        <v>1000</v>
+      </c>
+      <c r="BF11">
+        <v>33125844</v>
+      </c>
+      <c r="BG11">
+        <v>17583926</v>
+      </c>
+      <c r="BH11">
+        <v>328197</v>
+      </c>
+      <c r="BI11">
+        <v>58805</v>
+      </c>
+      <c r="BJ11">
+        <v>1.22644529</v>
+      </c>
+      <c r="BK11">
+        <v>1.226445335</v>
+      </c>
+      <c r="BL11">
+        <v>0</v>
+      </c>
+      <c r="BM11">
         <v>0</v>
       </c>
     </row>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-25.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="103">
   <si>
     <t>League</t>
   </si>
@@ -323,21 +323,6 @@
   </si>
   <si>
     <t>Emelec</t>
-  </si>
-  <si>
-    <t>33135365</t>
-  </si>
-  <si>
-    <t>1.226612905</t>
-  </si>
-  <si>
-    <t>1.226612950</t>
-  </si>
-  <si>
-    <t>1.226612989</t>
-  </si>
-  <si>
-    <t>1.226612914</t>
   </si>
 </sst>
 </file>
@@ -918,7 +903,7 @@
         <v>2</v>
       </c>
       <c r="G2">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H2">
         <v>4.6</v>
@@ -927,25 +912,25 @@
         <v>5.1</v>
       </c>
       <c r="J2">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K2">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L2">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="M2">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="N2">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="O2">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="P2">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q2">
         <v>2.36</v>
@@ -954,13 +939,13 @@
         <v>1.73</v>
       </c>
       <c r="S2">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="T2">
-        <v>8.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="U2">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="V2">
         <v>11</v>
@@ -969,19 +954,19 @@
         <v>13</v>
       </c>
       <c r="X2">
-        <v>7.4</v>
+        <v>6</v>
       </c>
       <c r="Y2">
         <v>42</v>
       </c>
       <c r="Z2">
-        <v>8.4</v>
+        <v>6.6</v>
       </c>
       <c r="AA2">
         <v>160</v>
       </c>
       <c r="AB2">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AC2">
         <v>7</v>
@@ -996,10 +981,10 @@
         <v>18.5</v>
       </c>
       <c r="AG2">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AH2">
-        <v>8.199999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="AI2">
         <v>100</v>
@@ -1017,55 +1002,55 @@
         <v>11.5</v>
       </c>
       <c r="AN2">
-        <v>18.5</v>
+        <v>6.4</v>
       </c>
       <c r="AO2">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AP2">
-        <v>8.4</v>
+        <v>6.8</v>
       </c>
       <c r="AQ2">
         <v>130</v>
       </c>
       <c r="AR2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AS2">
         <v>29</v>
       </c>
       <c r="AT2">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="AU2">
         <v>34</v>
       </c>
       <c r="AV2">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
       <c r="AW2">
         <v>70</v>
       </c>
       <c r="AX2">
-        <v>8.6</v>
+        <v>6.8</v>
       </c>
       <c r="AY2">
         <v>250</v>
       </c>
       <c r="AZ2">
-        <v>6.6</v>
+        <v>5.5</v>
       </c>
       <c r="BA2">
         <v>27</v>
       </c>
       <c r="BB2">
-        <v>8.4</v>
+        <v>6.6</v>
       </c>
       <c r="BC2">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="BD2">
-        <v>8.800000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="BE2">
         <v>1000</v>
@@ -1112,34 +1097,34 @@
         <v>94</v>
       </c>
       <c r="F3">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="G3">
-        <v>2.4</v>
+        <v>2.24</v>
       </c>
       <c r="H3">
         <v>3.5</v>
       </c>
       <c r="I3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="K3">
-        <v>5.7</v>
+        <v>4.8</v>
       </c>
       <c r="L3">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="M3">
+        <v>1.95</v>
+      </c>
+      <c r="N3">
         <v>2.04</v>
       </c>
-      <c r="N3">
-        <v>1.96</v>
-      </c>
       <c r="O3">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="P3">
         <v>1.13</v>
@@ -1154,7 +1139,7 @@
         <v>970</v>
       </c>
       <c r="T3">
-        <v>1.15</v>
+        <v>1.49</v>
       </c>
       <c r="U3">
         <v>980</v>
@@ -1309,139 +1294,139 @@
         <v>95</v>
       </c>
       <c r="F4">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="G4">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="H4">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="I4">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="J4">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K4">
-        <v>5.2</v>
+        <v>4.4</v>
       </c>
       <c r="L4">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="M4">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="N4">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="O4">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="P4">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="Q4">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="R4">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="S4">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="T4">
-        <v>3.65</v>
+        <v>14</v>
       </c>
       <c r="U4">
         <v>24</v>
       </c>
       <c r="V4">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="W4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X4">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="Y4">
         <v>40</v>
       </c>
       <c r="Z4">
-        <v>3.05</v>
+        <v>4</v>
       </c>
       <c r="AA4">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AB4">
-        <v>3.3</v>
+        <v>9.6</v>
       </c>
       <c r="AC4">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AD4">
-        <v>3.15</v>
+        <v>7.8</v>
       </c>
       <c r="AE4">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AF4">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="AG4">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AH4">
-        <v>2.98</v>
+        <v>3.9</v>
       </c>
       <c r="AI4">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ4">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="AK4">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AL4">
-        <v>3.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AM4">
         <v>13</v>
       </c>
       <c r="AN4">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="AO4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP4">
-        <v>3.2</v>
+        <v>3.95</v>
       </c>
       <c r="AQ4">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AR4">
-        <v>3.75</v>
+        <v>17</v>
       </c>
       <c r="AS4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT4">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AU4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV4">
-        <v>3.2</v>
+        <v>3.85</v>
       </c>
       <c r="AW4">
         <v>38</v>
       </c>
       <c r="AX4">
-        <v>3.05</v>
+        <v>4</v>
       </c>
       <c r="AY4">
         <v>1000</v>
@@ -1450,16 +1435,16 @@
         <v>3.2</v>
       </c>
       <c r="BA4">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="BB4">
-        <v>3.05</v>
+        <v>3.7</v>
       </c>
       <c r="BC4">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BD4">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="BE4">
         <v>1000</v>
@@ -1506,157 +1491,157 @@
         <v>96</v>
       </c>
       <c r="F5">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>3.35</v>
       </c>
       <c r="H5">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="I5">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="J5">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K5">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="L5">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="M5">
-        <v>3.1</v>
+        <v>2.08</v>
       </c>
       <c r="N5">
-        <v>1.47</v>
+        <v>1.93</v>
       </c>
       <c r="O5">
-        <v>2.52</v>
+        <v>4.5</v>
       </c>
       <c r="P5">
-        <v>1.12</v>
+        <v>1.54</v>
       </c>
       <c r="Q5">
-        <v>980</v>
+        <v>2.5</v>
       </c>
       <c r="R5">
-        <v>1.12</v>
+        <v>1.67</v>
       </c>
       <c r="S5">
-        <v>980</v>
+        <v>2.86</v>
       </c>
       <c r="T5">
-        <v>1.48</v>
+        <v>3.25</v>
       </c>
       <c r="U5">
         <v>980</v>
       </c>
       <c r="V5">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="W5">
         <v>980</v>
       </c>
       <c r="X5">
-        <v>1.1</v>
+        <v>3.55</v>
       </c>
       <c r="Y5">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Z5">
-        <v>1.1</v>
+        <v>3.15</v>
       </c>
       <c r="AA5">
         <v>1000</v>
       </c>
       <c r="AB5">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="AC5">
         <v>980</v>
       </c>
       <c r="AD5">
-        <v>1.1</v>
+        <v>2.92</v>
       </c>
       <c r="AE5">
         <v>980</v>
       </c>
       <c r="AF5">
-        <v>1.1</v>
+        <v>3.35</v>
       </c>
       <c r="AG5">
         <v>980</v>
       </c>
       <c r="AH5">
-        <v>1.1</v>
+        <v>3.85</v>
       </c>
       <c r="AI5">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ5">
-        <v>1.1</v>
+        <v>3.55</v>
       </c>
       <c r="AK5">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL5">
-        <v>1.1</v>
+        <v>3.35</v>
       </c>
       <c r="AM5">
         <v>980</v>
       </c>
       <c r="AN5">
-        <v>1.1</v>
+        <v>3.6</v>
       </c>
       <c r="AO5">
         <v>980</v>
       </c>
       <c r="AP5">
-        <v>1.1</v>
+        <v>2.14</v>
       </c>
       <c r="AQ5">
         <v>1000</v>
       </c>
       <c r="AR5">
-        <v>1.1</v>
+        <v>2.36</v>
       </c>
       <c r="AS5">
         <v>1000</v>
       </c>
       <c r="AT5">
-        <v>1.1</v>
+        <v>3.85</v>
       </c>
       <c r="AU5">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AV5">
-        <v>1.1</v>
+        <v>2.14</v>
       </c>
       <c r="AW5">
         <v>1000</v>
       </c>
       <c r="AX5">
-        <v>1.1</v>
+        <v>1.89</v>
       </c>
       <c r="AY5">
         <v>1000</v>
       </c>
       <c r="AZ5">
-        <v>1.1</v>
+        <v>1.83</v>
       </c>
       <c r="BA5">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="BB5">
-        <v>1.1</v>
+        <v>1.82</v>
       </c>
       <c r="BC5">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="BD5">
-        <v>1.1</v>
+        <v>1.92</v>
       </c>
       <c r="BE5">
         <v>1000</v>
@@ -1718,16 +1703,16 @@
         <v>3.35</v>
       </c>
       <c r="K6">
-        <v>3.95</v>
+        <v>3.7</v>
       </c>
       <c r="L6">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="M6">
         <v>1.87</v>
       </c>
       <c r="N6">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="O6">
         <v>2.44</v>
@@ -1751,31 +1736,31 @@
         <v>12</v>
       </c>
       <c r="V6">
-        <v>11.5</v>
+        <v>4.8</v>
       </c>
       <c r="W6">
         <v>980</v>
       </c>
       <c r="X6">
-        <v>1.1</v>
+        <v>5.8</v>
       </c>
       <c r="Y6">
         <v>38</v>
       </c>
       <c r="Z6">
-        <v>1.1</v>
+        <v>2.34</v>
       </c>
       <c r="AA6">
         <v>1000</v>
       </c>
       <c r="AB6">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="AC6">
         <v>980</v>
       </c>
       <c r="AD6">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="AE6">
         <v>8.800000000000001</v>
@@ -1787,19 +1772,19 @@
         <v>980</v>
       </c>
       <c r="AH6">
-        <v>1.1</v>
+        <v>2.44</v>
       </c>
       <c r="AI6">
         <v>1000</v>
       </c>
       <c r="AJ6">
-        <v>8.800000000000001</v>
+        <v>4.6</v>
       </c>
       <c r="AK6">
         <v>12</v>
       </c>
       <c r="AL6">
-        <v>8.800000000000001</v>
+        <v>4.5</v>
       </c>
       <c r="AM6">
         <v>980</v>
@@ -1811,7 +1796,7 @@
         <v>980</v>
       </c>
       <c r="AP6">
-        <v>1.1</v>
+        <v>2.34</v>
       </c>
       <c r="AQ6">
         <v>1000</v>
@@ -1829,31 +1814,31 @@
         <v>25</v>
       </c>
       <c r="AV6">
-        <v>1.1</v>
+        <v>6</v>
       </c>
       <c r="AW6">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AX6">
-        <v>1.1</v>
+        <v>2.34</v>
       </c>
       <c r="AY6">
         <v>1000</v>
       </c>
       <c r="AZ6">
-        <v>1.1</v>
+        <v>2.34</v>
       </c>
       <c r="BA6">
         <v>18.5</v>
       </c>
       <c r="BB6">
-        <v>1.1</v>
+        <v>1.81</v>
       </c>
       <c r="BC6">
         <v>100</v>
       </c>
       <c r="BD6">
-        <v>1.1</v>
+        <v>1.84</v>
       </c>
       <c r="BE6">
         <v>1000</v>
@@ -1900,34 +1885,34 @@
         <v>98</v>
       </c>
       <c r="F7">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="G7">
-        <v>5.7</v>
+        <v>4.4</v>
       </c>
       <c r="H7">
+        <v>2.22</v>
+      </c>
+      <c r="I7">
+        <v>4.7</v>
+      </c>
+      <c r="J7">
+        <v>1.78</v>
+      </c>
+      <c r="K7">
+        <v>4.7</v>
+      </c>
+      <c r="L7">
+        <v>1.41</v>
+      </c>
+      <c r="M7">
+        <v>1.82</v>
+      </c>
+      <c r="N7">
         <v>2.2</v>
       </c>
-      <c r="I7">
+      <c r="O7">
         <v>3.45</v>
-      </c>
-      <c r="J7">
-        <v>1.87</v>
-      </c>
-      <c r="K7">
-        <v>5</v>
-      </c>
-      <c r="L7">
-        <v>1.2</v>
-      </c>
-      <c r="M7">
-        <v>13.5</v>
-      </c>
-      <c r="N7">
-        <v>1.1</v>
-      </c>
-      <c r="O7">
-        <v>6</v>
       </c>
       <c r="P7">
         <v>1.12</v>
@@ -1948,91 +1933,91 @@
         <v>1000</v>
       </c>
       <c r="V7">
-        <v>1.01</v>
+        <v>2.44</v>
       </c>
       <c r="W7">
         <v>1000</v>
       </c>
       <c r="X7">
-        <v>1.01</v>
+        <v>2.86</v>
       </c>
       <c r="Y7">
         <v>1000</v>
       </c>
       <c r="Z7">
-        <v>1.01</v>
+        <v>4.5</v>
       </c>
       <c r="AA7">
         <v>1000</v>
       </c>
       <c r="AB7">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="AC7">
         <v>1000</v>
       </c>
       <c r="AD7">
-        <v>1.01</v>
+        <v>3.1</v>
       </c>
       <c r="AE7">
         <v>1000</v>
       </c>
       <c r="AF7">
-        <v>1.01</v>
+        <v>4.9</v>
       </c>
       <c r="AG7">
         <v>1000</v>
       </c>
       <c r="AH7">
-        <v>1.01</v>
+        <v>7.2</v>
       </c>
       <c r="AI7">
         <v>1000</v>
       </c>
       <c r="AJ7">
-        <v>1.01</v>
+        <v>2.9</v>
       </c>
       <c r="AK7">
         <v>1000</v>
       </c>
       <c r="AL7">
-        <v>1.01</v>
+        <v>2.92</v>
       </c>
       <c r="AM7">
         <v>1000</v>
       </c>
       <c r="AN7">
-        <v>1.01</v>
+        <v>4.9</v>
       </c>
       <c r="AO7">
         <v>1000</v>
       </c>
       <c r="AP7">
-        <v>1.01</v>
+        <v>12</v>
       </c>
       <c r="AQ7">
         <v>1000</v>
       </c>
       <c r="AR7">
-        <v>1.01</v>
+        <v>3.7</v>
       </c>
       <c r="AS7">
         <v>1000</v>
       </c>
       <c r="AT7">
-        <v>1.01</v>
+        <v>5</v>
       </c>
       <c r="AU7">
         <v>1000</v>
       </c>
       <c r="AV7">
-        <v>1.01</v>
+        <v>14</v>
       </c>
       <c r="AW7">
         <v>1000</v>
       </c>
       <c r="AX7">
-        <v>1.01</v>
+        <v>13.5</v>
       </c>
       <c r="AY7">
         <v>1000</v>
@@ -2055,8 +2040,8 @@
       <c r="BE7">
         <v>1000</v>
       </c>
-      <c r="BF7" t="s">
-        <v>103</v>
+      <c r="BF7">
+        <v>33135365</v>
       </c>
       <c r="BG7">
         <v>10160867</v>
@@ -2067,17 +2052,17 @@
       <c r="BI7">
         <v>58805</v>
       </c>
-      <c r="BJ7" t="s">
-        <v>104</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>105</v>
-      </c>
-      <c r="BL7" t="s">
-        <v>106</v>
-      </c>
-      <c r="BM7" t="s">
-        <v>107</v>
+      <c r="BJ7">
+        <v>1.226612905</v>
+      </c>
+      <c r="BK7">
+        <v>1.22661295</v>
+      </c>
+      <c r="BL7">
+        <v>1.226612989</v>
+      </c>
+      <c r="BM7">
+        <v>1.226612914</v>
       </c>
     </row>
     <row r="8" spans="1:65">
@@ -2097,7 +2082,7 @@
         <v>99</v>
       </c>
       <c r="F8">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="G8">
         <v>1.53</v>
@@ -2109,13 +2094,13 @@
         <v>10.5</v>
       </c>
       <c r="J8">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K8">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="L8">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="M8">
         <v>1.93</v>
@@ -2124,10 +2109,10 @@
         <v>2.08</v>
       </c>
       <c r="O8">
-        <v>3.1</v>
+        <v>2.28</v>
       </c>
       <c r="P8">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q8">
         <v>2.64</v>
@@ -2136,7 +2121,7 @@
         <v>1.6</v>
       </c>
       <c r="S8">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="T8">
         <v>10.5</v>
@@ -2145,19 +2130,19 @@
         <v>13</v>
       </c>
       <c r="V8">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="W8">
         <v>25</v>
       </c>
       <c r="X8">
-        <v>1.01</v>
+        <v>2.6</v>
       </c>
       <c r="Y8">
         <v>80</v>
       </c>
       <c r="Z8">
-        <v>1.01</v>
+        <v>3.85</v>
       </c>
       <c r="AA8">
         <v>1000</v>
@@ -2175,13 +2160,13 @@
         <v>11.5</v>
       </c>
       <c r="AF8">
-        <v>28</v>
+        <v>3.9</v>
       </c>
       <c r="AG8">
         <v>38</v>
       </c>
       <c r="AH8">
-        <v>1.01</v>
+        <v>7</v>
       </c>
       <c r="AI8">
         <v>1000</v>
@@ -2190,7 +2175,7 @@
         <v>6.6</v>
       </c>
       <c r="AK8">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AL8">
         <v>9.199999999999999</v>
@@ -2205,19 +2190,19 @@
         <v>1000</v>
       </c>
       <c r="AP8">
-        <v>130</v>
+        <v>1.01</v>
       </c>
       <c r="AQ8">
         <v>1000</v>
       </c>
       <c r="AR8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AS8">
         <v>14</v>
       </c>
       <c r="AT8">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AU8">
         <v>21</v>
@@ -2229,7 +2214,7 @@
         <v>1000</v>
       </c>
       <c r="AX8">
-        <v>1.01</v>
+        <v>22</v>
       </c>
       <c r="AY8">
         <v>1000</v>
@@ -2294,157 +2279,157 @@
         <v>100</v>
       </c>
       <c r="F9">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="G9">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="H9">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I9">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="J9">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="K9">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L9">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="M9">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="N9">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="O9">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="P9">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="Q9">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R9">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="S9">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="T9">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="U9">
-        <v>18.5</v>
+        <v>980</v>
       </c>
       <c r="V9">
-        <v>15</v>
+        <v>6.2</v>
       </c>
       <c r="W9">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="X9">
-        <v>1.1</v>
+        <v>7.4</v>
       </c>
       <c r="Y9">
         <v>38</v>
       </c>
       <c r="Z9">
-        <v>1.1</v>
+        <v>8.6</v>
       </c>
       <c r="AA9">
         <v>110</v>
       </c>
       <c r="AB9">
-        <v>8.6</v>
+        <v>4.9</v>
       </c>
       <c r="AC9">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AD9">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AE9">
         <v>980</v>
       </c>
       <c r="AF9">
-        <v>14.5</v>
+        <v>6.2</v>
       </c>
       <c r="AG9">
         <v>20</v>
       </c>
       <c r="AH9">
-        <v>1.1</v>
+        <v>8</v>
       </c>
       <c r="AI9">
         <v>60</v>
       </c>
       <c r="AJ9">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AK9">
         <v>13</v>
       </c>
       <c r="AL9">
-        <v>8.4</v>
+        <v>4.9</v>
       </c>
       <c r="AM9">
-        <v>11.5</v>
+        <v>980</v>
       </c>
       <c r="AN9">
-        <v>15</v>
+        <v>6.2</v>
       </c>
       <c r="AO9">
         <v>20</v>
       </c>
       <c r="AP9">
-        <v>1.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AQ9">
         <v>65</v>
       </c>
       <c r="AR9">
-        <v>16.5</v>
+        <v>6.6</v>
       </c>
       <c r="AS9">
         <v>23</v>
       </c>
       <c r="AT9">
-        <v>14.5</v>
+        <v>6.4</v>
       </c>
       <c r="AU9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV9">
-        <v>1.1</v>
+        <v>7.4</v>
       </c>
       <c r="AW9">
         <v>36</v>
       </c>
       <c r="AX9">
-        <v>1.1</v>
+        <v>8.4</v>
       </c>
       <c r="AY9">
         <v>100</v>
       </c>
       <c r="AZ9">
-        <v>1.1</v>
+        <v>5.2</v>
       </c>
       <c r="BA9">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="BB9">
-        <v>1.1</v>
+        <v>7.4</v>
       </c>
       <c r="BC9">
         <v>55</v>
       </c>
       <c r="BD9">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="BE9">
         <v>1000</v>
@@ -2539,91 +2524,91 @@
         <v>1000</v>
       </c>
       <c r="V10">
-        <v>2.92</v>
+        <v>2.56</v>
       </c>
       <c r="W10">
         <v>1000</v>
       </c>
       <c r="X10">
-        <v>2.58</v>
+        <v>2.78</v>
       </c>
       <c r="Y10">
         <v>1000</v>
       </c>
       <c r="Z10">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="AA10">
         <v>1000</v>
       </c>
       <c r="AB10">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="AC10">
         <v>1000</v>
       </c>
       <c r="AD10">
-        <v>2.78</v>
+        <v>2.88</v>
       </c>
       <c r="AE10">
         <v>1000</v>
       </c>
       <c r="AF10">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="AG10">
         <v>1000</v>
       </c>
       <c r="AH10">
-        <v>7.4</v>
+        <v>4.1</v>
       </c>
       <c r="AI10">
         <v>1000</v>
       </c>
       <c r="AJ10">
+        <v>3</v>
+      </c>
+      <c r="AK10">
+        <v>1000</v>
+      </c>
+      <c r="AL10">
+        <v>4.7</v>
+      </c>
+      <c r="AM10">
+        <v>1000</v>
+      </c>
+      <c r="AN10">
+        <v>6</v>
+      </c>
+      <c r="AO10">
+        <v>1000</v>
+      </c>
+      <c r="AP10">
+        <v>8.4</v>
+      </c>
+      <c r="AQ10">
+        <v>1000</v>
+      </c>
+      <c r="AR10">
         <v>2.88</v>
       </c>
-      <c r="AK10">
-        <v>1000</v>
-      </c>
-      <c r="AL10">
-        <v>3.95</v>
-      </c>
-      <c r="AM10">
-        <v>1000</v>
-      </c>
-      <c r="AN10">
-        <v>6.2</v>
-      </c>
-      <c r="AO10">
-        <v>1000</v>
-      </c>
-      <c r="AP10">
-        <v>12.5</v>
-      </c>
-      <c r="AQ10">
-        <v>1000</v>
-      </c>
-      <c r="AR10">
-        <v>3.15</v>
-      </c>
       <c r="AS10">
         <v>1000</v>
       </c>
       <c r="AT10">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="AU10">
         <v>1000</v>
       </c>
       <c r="AV10">
-        <v>6.6</v>
+        <v>12</v>
       </c>
       <c r="AW10">
         <v>1000</v>
       </c>
       <c r="AX10">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AY10">
         <v>1000</v>
@@ -2688,13 +2673,13 @@
         <v>102</v>
       </c>
       <c r="F11">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="G11">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H11">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="I11">
         <v>2.58</v>
@@ -2703,7 +2688,7 @@
         <v>3.25</v>
       </c>
       <c r="K11">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="L11">
         <v>1.72</v>
@@ -2724,7 +2709,7 @@
         <v>2.1</v>
       </c>
       <c r="R11">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="S11">
         <v>2.24</v>
@@ -2736,7 +2721,7 @@
         <v>14</v>
       </c>
       <c r="V11">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="W11">
         <v>10.5</v>
@@ -2748,7 +2733,7 @@
         <v>17.5</v>
       </c>
       <c r="Z11">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="AA11">
         <v>40</v>
@@ -2757,13 +2742,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC11">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AD11">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="AE11">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AF11">
         <v>8.800000000000001</v>
@@ -2772,7 +2757,7 @@
         <v>14.5</v>
       </c>
       <c r="AH11">
-        <v>1.1</v>
+        <v>4.6</v>
       </c>
       <c r="AI11">
         <v>34</v>
@@ -2781,13 +2766,13 @@
         <v>16</v>
       </c>
       <c r="AK11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL11">
         <v>10.5</v>
       </c>
       <c r="AM11">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AN11">
         <v>14.5</v>
@@ -2796,49 +2781,49 @@
         <v>980</v>
       </c>
       <c r="AP11">
-        <v>1.1</v>
+        <v>4.6</v>
       </c>
       <c r="AQ11">
         <v>60</v>
       </c>
       <c r="AR11">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="AS11">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AT11">
-        <v>1.1</v>
+        <v>4.6</v>
       </c>
       <c r="AU11">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AV11">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="AW11">
         <v>70</v>
       </c>
       <c r="AX11">
-        <v>17</v>
+        <v>4.8</v>
       </c>
       <c r="AY11">
         <v>150</v>
       </c>
       <c r="AZ11">
-        <v>1.1</v>
+        <v>4.5</v>
       </c>
       <c r="BA11">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BB11">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="BC11">
         <v>28</v>
       </c>
       <c r="BD11">
-        <v>1.1</v>
+        <v>5</v>
       </c>
       <c r="BE11">
         <v>1000</v>

--- a/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-25.xlsx
+++ b/Luke/Jogos_do_Dia/Jogos_do_Dia_Betfair_Back_Lay_2024-03-25.xlsx
@@ -2476,46 +2476,46 @@
         <v>101</v>
       </c>
       <c r="F10">
-        <v>1.04</v>
+        <v>1.35</v>
       </c>
       <c r="G10">
         <v>980</v>
       </c>
       <c r="H10">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>980</v>
       </c>
       <c r="J10">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="K10">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="L10">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="M10">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N10">
         <v>1.1</v>
       </c>
       <c r="O10">
-        <v>6.6</v>
+        <v>4.6</v>
       </c>
       <c r="P10">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="Q10">
-        <v>980</v>
+        <v>9.4</v>
       </c>
       <c r="R10">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="S10">
-        <v>980</v>
+        <v>7.8</v>
       </c>
       <c r="T10">
         <v>1.49</v>
@@ -2524,112 +2524,112 @@
         <v>1000</v>
       </c>
       <c r="V10">
-        <v>2.56</v>
+        <v>1.02</v>
       </c>
       <c r="W10">
         <v>1000</v>
       </c>
       <c r="X10">
-        <v>2.78</v>
+        <v>2.62</v>
       </c>
       <c r="Y10">
         <v>1000</v>
       </c>
       <c r="Z10">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="AA10">
         <v>1000</v>
       </c>
       <c r="AB10">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="AC10">
         <v>1000</v>
       </c>
       <c r="AD10">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="AE10">
         <v>1000</v>
       </c>
       <c r="AF10">
-        <v>4.7</v>
+        <v>3.3</v>
       </c>
       <c r="AG10">
         <v>1000</v>
       </c>
       <c r="AH10">
+        <v>7.8</v>
+      </c>
+      <c r="AI10">
+        <v>1000</v>
+      </c>
+      <c r="AJ10">
+        <v>1.02</v>
+      </c>
+      <c r="AK10">
+        <v>1000</v>
+      </c>
+      <c r="AL10">
         <v>4.1</v>
       </c>
-      <c r="AI10">
-        <v>1000</v>
-      </c>
-      <c r="AJ10">
-        <v>3</v>
-      </c>
-      <c r="AK10">
-        <v>1000</v>
-      </c>
-      <c r="AL10">
-        <v>4.7</v>
-      </c>
       <c r="AM10">
         <v>1000</v>
       </c>
       <c r="AN10">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="AO10">
         <v>1000</v>
       </c>
       <c r="AP10">
-        <v>8.4</v>
+        <v>13.5</v>
       </c>
       <c r="AQ10">
         <v>1000</v>
       </c>
       <c r="AR10">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="AS10">
         <v>1000</v>
       </c>
       <c r="AT10">
-        <v>7.6</v>
+        <v>4</v>
       </c>
       <c r="AU10">
         <v>1000</v>
       </c>
       <c r="AV10">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AW10">
         <v>1000</v>
       </c>
       <c r="AX10">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AY10">
         <v>1000</v>
       </c>
       <c r="AZ10">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="BA10">
         <v>1000</v>
       </c>
       <c r="BB10">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="BC10">
         <v>1000</v>
       </c>
       <c r="BD10">
-        <v>36</v>
+        <v>1.03</v>
       </c>
       <c r="BE10">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="BF10">
         <v>33121380</v>
@@ -2673,37 +2673,37 @@
         <v>102</v>
       </c>
       <c r="F11">
-        <v>2.98</v>
+        <v>3.3</v>
       </c>
       <c r="G11">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H11">
         <v>2.32</v>
       </c>
       <c r="I11">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="J11">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K11">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="L11">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="M11">
+        <v>1.83</v>
+      </c>
+      <c r="N11">
+        <v>2.2</v>
+      </c>
+      <c r="O11">
+        <v>2.5</v>
+      </c>
+      <c r="P11">
         <v>1.93</v>
-      </c>
-      <c r="N11">
-        <v>2.08</v>
-      </c>
-      <c r="O11">
-        <v>2.4</v>
-      </c>
-      <c r="P11">
-        <v>1.8</v>
       </c>
       <c r="Q11">
         <v>2.1</v>
@@ -2712,118 +2712,118 @@
         <v>1.92</v>
       </c>
       <c r="S11">
-        <v>2.24</v>
+        <v>2.08</v>
       </c>
       <c r="T11">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="U11">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="V11">
         <v>7.8</v>
       </c>
       <c r="W11">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="X11">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="Y11">
         <v>17.5</v>
       </c>
       <c r="Z11">
-        <v>4.7</v>
+        <v>26</v>
       </c>
       <c r="AA11">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AB11">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC11">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD11">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AE11">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="AF11">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AG11">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AH11">
-        <v>4.6</v>
+        <v>23</v>
       </c>
       <c r="AI11">
         <v>34</v>
       </c>
       <c r="AJ11">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AK11">
         <v>27</v>
       </c>
       <c r="AL11">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AM11">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AN11">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO11">
-        <v>980</v>
+        <v>21</v>
       </c>
       <c r="AP11">
-        <v>4.6</v>
+        <v>6</v>
       </c>
       <c r="AQ11">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AR11">
-        <v>4.7</v>
+        <v>7.6</v>
       </c>
       <c r="AS11">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AT11">
-        <v>4.6</v>
+        <v>30</v>
       </c>
       <c r="AU11">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AV11">
-        <v>4.7</v>
+        <v>6.2</v>
       </c>
       <c r="AW11">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AX11">
-        <v>4.8</v>
+        <v>6.6</v>
       </c>
       <c r="AY11">
-        <v>150</v>
+        <v>980</v>
       </c>
       <c r="AZ11">
-        <v>4.5</v>
+        <v>6.2</v>
       </c>
       <c r="BA11">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="BB11">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="BC11">
         <v>28</v>
       </c>
       <c r="BD11">
-        <v>5</v>
+        <v>6.8</v>
       </c>
       <c r="BE11">
         <v>1000</v>
